--- a/data/Profile data.xlsx
+++ b/data/Profile data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SSBD\ANSYS_Course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ssbd_website\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C0EA6F-6E2A-4AA7-9EF3-5B8A597C0465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9FCFA8-8511-4D5F-AF41-6C12BC6C3B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1E95BC28-FD77-45F0-91C7-95ED5C4F9B48}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7785" xr2:uid="{1E95BC28-FD77-45F0-91C7-95ED5C4F9B48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -47,9 +50,6 @@
     <t>Email Address</t>
   </si>
   <si>
-    <t>Sajid</t>
-  </si>
-  <si>
     <t>SSBDCE202504006</t>
   </si>
   <si>
@@ -65,68 +65,23 @@
     <t>hasanmahmud.781988@gmail.com</t>
   </si>
   <si>
-    <t>Hironmoy Das</t>
-  </si>
-  <si>
-    <t>SSBDCE202504008</t>
-  </si>
-  <si>
-    <t>dashiron158@gmail.com</t>
-  </si>
-  <si>
-    <t>Sharif</t>
-  </si>
-  <si>
-    <t>SSBDCE202504009</t>
-  </si>
-  <si>
-    <t>s_md@u.pacific.edu</t>
-  </si>
-  <si>
-    <t>Jabir Joardar</t>
-  </si>
-  <si>
-    <t>SSBDCE202504010</t>
-  </si>
-  <si>
-    <t>jabirsaief@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Md. Abdullah Anzum Adib </t>
-  </si>
-  <si>
-    <t>SSBDCE202504011</t>
-  </si>
-  <si>
-    <t>abdullahanzumadib6537@gmail.com</t>
-  </si>
-  <si>
-    <t>Md.Showkat Azam Chy sagor</t>
-  </si>
-  <si>
-    <t>SSBDCE202504012</t>
-  </si>
-  <si>
-    <t>azamsagorchy@gmail.com</t>
-  </si>
-  <si>
-    <t>Tanveer</t>
-  </si>
-  <si>
-    <t>SSBDCE202504013</t>
-  </si>
-  <si>
-    <t>Sadat</t>
-  </si>
-  <si>
-    <t>SSBDCE202504014</t>
+    <t>Profile_picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://drive.google.com/open?id=1UK71tR6toelS2Ok1QqEsdVAxATt3_Dpk</t>
+  </si>
+  <si>
+    <t>A. F. M. Mohaimen Khan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1l9JDaLmuk5unOqlApHf-_xmWtqd47bTR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +133,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -199,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -293,12 +254,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5B3F86"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5B3F86"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -343,6 +315,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -678,20 +657,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE42E99-2A34-4DBC-B57D-39EC19C897A4}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A4" sqref="A4:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,111 +681,82 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="D11" s="20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{1AC7D3C5-FCD3-40F6-B4AA-79907FEF876B}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{997519CF-04C7-4C0A-96F6-19403BD168E5}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{CF43CE63-C06F-45F6-BC9E-3A92CFB78AC5}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{D28D2E2B-DAB1-4ECE-95B8-B20734ABB0E0}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{2E6B4CB7-C524-4666-99FB-8C4D1477BD12}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{79BA6AA6-1A4D-4696-BC8B-2A34C56D8403}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{AAF03C0B-DC3F-447C-BA26-3D3E54CA0467}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{CF43CE63-C06F-45F6-BC9E-3A92CFB78AC5}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{73E9309E-5DE9-48FF-84DF-81D56C70745D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
